--- a/fMRI Tasks/WASABI distractmap/Practice_N-back-1.xlsx
+++ b/fMRI Tasks/WASABI distractmap/Practice_N-back-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\N-back\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\canlab\WASABI_public\fMRI Tasks\WASABI distractmap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4BDE46-7A9C-4BA2-9C61-064E72797565}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0793FAD2-E212-46C5-AB62-540E9EC3A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{025A4008-9107-42EC-BAC7-A6E69E9A4E4C}"/>
+    <workbookView xWindow="38280" yWindow="285" windowWidth="38640" windowHeight="22650" xr2:uid="{025A4008-9107-42EC-BAC7-A6E69E9A4E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>location</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>square</t>
-  </si>
-  <si>
-    <t>space</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,8 +462,8 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,6 +473,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -484,6 +484,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -492,8 +495,8 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,6 +506,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -511,6 +517,9 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -519,6 +528,9 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -527,8 +539,8 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -538,6 +550,9 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -545,6 +560,9 @@
       </c>
       <c r="B12" t="s">
         <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,6 +572,9 @@
       <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -562,6 +583,9 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -570,8 +594,8 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>12</v>
+      <c r="C15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,6 +605,9 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -589,6 +616,9 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -597,8 +627,8 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
+      <c r="C18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,6 +638,9 @@
       <c r="B19" t="s">
         <v>3</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -615,6 +648,9 @@
       </c>
       <c r="B20" t="s">
         <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,6 +660,9 @@
       <c r="B21" t="s">
         <v>7</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -632,6 +671,9 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -640,8 +682,8 @@
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
+      <c r="C23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,8 +693,8 @@
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
-        <v>12</v>
+      <c r="C24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,6 +703,9 @@
       </c>
       <c r="B25" t="s">
         <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,6 +715,9 @@
       <c r="B26" t="s">
         <v>4</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -677,6 +725,9 @@
       </c>
       <c r="B27" t="s">
         <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,6 +737,9 @@
       <c r="B28" t="s">
         <v>8</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -694,8 +748,8 @@
       <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
+      <c r="C29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,6 +759,9 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -712,6 +769,9 @@
       </c>
       <c r="B31" t="s">
         <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
